--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCCBE29-A31F-4A45-AF65-6ED6F2196609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8EEF5-7416-48FB-BE43-395339B89CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -259,27 +259,6 @@
     <t>IMPDEMZ</t>
   </si>
   <si>
-    <t>~TFM_INS-txt</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>pset_set</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>cset_cn</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>t_neg_andor</t>
-  </si>
-  <si>
     <t>~Currencies</t>
   </si>
   <si>
@@ -664,18 +643,6 @@
     <t>kt</t>
   </si>
   <si>
-    <t>prc_tsl</t>
-  </si>
-  <si>
-    <t>coal,nuclear</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
     <t>elc_roadtransport</t>
   </si>
   <si>
@@ -683,6 +650,12 @@
   </si>
   <si>
     <t>NCAP_AF</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>co2net</t>
   </si>
   <si>
     <t>JPN</t>
@@ -3082,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3107,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q20"/>
+  <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3179,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>11</v>
@@ -3199,16 +3172,16 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -3222,16 +3195,16 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -3365,10 +3338,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3382,16 +3355,32 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
         <v>205</v>
       </c>
-      <c r="D20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" t="s">
-        <v>207</v>
+      <c r="E22" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3687,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3807,7 +3796,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="11" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -3905,59 +3894,43 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
-      <c r="A20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+    <row r="19" spans="1:13" ht="14.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
     </row>
     <row r="21" spans="1:13" ht="14.25">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>209</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>210</v>
-      </c>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -3966,38 +3939,50 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+    <row r="22" spans="1:13" ht="14.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25"/>
@@ -4283,10 +4268,10 @@
       <c r="J2"/>
       <c r="K2" s="13"/>
       <c r="L2" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
@@ -4301,7 +4286,7 @@
       <c r="J3"/>
       <c r="K3" s="13"/>
       <c r="L3" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>53</v>
@@ -4316,10 +4301,10 @@
         <v>68</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U3" s="4">
         <v>2022</v>
@@ -4340,11 +4325,11 @@
       <c r="J4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M4" s="6"/>
       <c r="Q4" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="U4" s="11">
         <v>0.05</v>
@@ -4365,13 +4350,13 @@
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
       <c r="L5" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U5" s="11">
         <v>1</v>
@@ -4390,10 +4375,10 @@
       <c r="J6" s="6"/>
       <c r="K6" s="13"/>
       <c r="L6" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U6" s="11">
         <v>2025</v>
@@ -4403,10 +4388,10 @@
       <c r="J7" s="6"/>
       <c r="K7" s="13"/>
       <c r="L7" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="U7" s="11">
         <v>1</v>
@@ -4416,16 +4401,16 @@
       <c r="J8" s="6"/>
       <c r="K8" s="13"/>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U8" s="11">
         <v>2.2201</v>
@@ -4435,16 +4420,16 @@
       <c r="J9" s="6"/>
       <c r="K9" s="13"/>
       <c r="L9" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U9" s="11">
         <v>2.1427</v>
@@ -4452,23 +4437,23 @@
     </row>
     <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
       <c r="D10" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="13"/>
       <c r="L10" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="U10" s="11">
         <v>2.077</v>
@@ -4476,27 +4461,27 @@
     </row>
     <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="13"/>
       <c r="L11" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U11" s="11">
         <v>2.0358000000000001</v>
@@ -4504,26 +4489,26 @@
     </row>
     <row r="12" spans="2:22" ht="13.15">
       <c r="D12" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="6">
         <v>1055.55</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U12" s="11">
         <v>1.9870000000000001</v>
@@ -4531,26 +4516,26 @@
     </row>
     <row r="13" spans="2:22" ht="13.15">
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6">
         <v>3.6</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U13" s="11">
         <v>1.9192</v>
@@ -4559,26 +4544,26 @@
     <row r="14" spans="2:22" ht="13.15">
       <c r="B14" s="13"/>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F14" s="6">
         <v>1000</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U14" s="11">
         <v>1.8468</v>
@@ -4587,26 +4572,26 @@
     <row r="15" spans="2:22" ht="13.15">
       <c r="B15" s="13"/>
       <c r="D15" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F15" s="6">
         <v>1000</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U15" s="11">
         <v>1.7799</v>
@@ -4615,26 +4600,26 @@
     <row r="16" spans="2:22" ht="13.15">
       <c r="B16" s="13"/>
       <c r="D16" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F16" s="6">
         <v>1.05555</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U16" s="11">
         <v>1.722</v>
@@ -4642,26 +4627,26 @@
     </row>
     <row r="17" spans="4:21" ht="13.15">
       <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U17" s="11">
         <v>1.6836</v>
@@ -4669,25 +4654,25 @@
     </row>
     <row r="18" spans="4:21" ht="13.15">
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F18" s="6">
         <v>41.868000000000002</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U18" s="11">
         <v>1.6446000000000001</v>
@@ -4695,25 +4680,25 @@
     </row>
     <row r="19" spans="4:21" ht="13.15">
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U19" s="11">
         <v>1.6102000000000001</v>
@@ -4721,25 +4706,25 @@
     </row>
     <row r="20" spans="4:21" ht="13.15">
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6">
         <v>1000000</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U20" s="11">
         <v>1.5770999999999999</v>
@@ -4747,25 +4732,25 @@
     </row>
     <row r="21" spans="4:21" ht="13.15">
       <c r="D21" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6">
         <v>1000</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U21" s="11">
         <v>1.5488</v>
@@ -4773,25 +4758,25 @@
     </row>
     <row r="22" spans="4:21" ht="13.15">
       <c r="D22" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F22" s="6">
         <v>5.8615199999999996</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U22" s="11">
         <v>1.5224</v>
@@ -4799,25 +4784,25 @@
     </row>
     <row r="23" spans="4:21" ht="13.15">
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F23" s="6">
         <v>1E-3</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U23" s="11">
         <v>1.5058</v>
@@ -4825,25 +4810,25 @@
     </row>
     <row r="24" spans="4:21" ht="13.15">
       <c r="D24" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6">
         <v>1000</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U24" s="11">
         <v>1.4844999999999999</v>
@@ -4851,25 +4836,25 @@
     </row>
     <row r="25" spans="4:21" ht="13.15">
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F25" s="6">
         <v>37.68</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="U25" s="11">
         <v>1.4518</v>
@@ -4877,25 +4862,25 @@
     </row>
     <row r="26" spans="4:21" ht="13.15">
       <c r="D26" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F26" s="6">
         <v>2139.4548</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U26" s="11">
         <v>1.4198999999999999</v>
@@ -4903,25 +4888,25 @@
     </row>
     <row r="27" spans="4:21" ht="13.15">
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27" s="6">
         <v>2.78</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="U27" s="11">
         <v>1.3986000000000001</v>
@@ -4929,25 +4914,25 @@
     </row>
     <row r="28" spans="4:21" ht="13.15">
       <c r="D28" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F28" s="6">
         <v>3.6</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U28" s="11">
         <v>1.3727</v>
@@ -4955,25 +4940,25 @@
     </row>
     <row r="29" spans="4:21" ht="13.15">
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U29" s="11">
         <v>1.3369</v>
@@ -4981,25 +4966,25 @@
     </row>
     <row r="30" spans="4:21" ht="13.15">
       <c r="D30" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6">
         <v>31.536000000000001</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U30" s="11">
         <v>1.2967</v>
@@ -5007,25 +4992,25 @@
     </row>
     <row r="31" spans="4:21" ht="13.15">
       <c r="D31" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F31" s="6">
         <v>120</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U31" s="11">
         <v>1.2583</v>
@@ -5033,25 +5018,25 @@
     </row>
     <row r="32" spans="4:21" ht="13.15">
       <c r="D32" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F32" s="11">
         <v>5.8615199999999996</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U32" s="11">
         <v>1.2253000000000001</v>
@@ -5059,25 +5044,25 @@
     </row>
     <row r="33" spans="4:21" ht="13.15">
       <c r="D33" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F33" s="11">
         <v>54</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="U33" s="11">
         <v>1.2023999999999999</v>
@@ -5085,16 +5070,16 @@
     </row>
     <row r="34" spans="4:21" ht="13.15">
       <c r="L34" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U34" s="11">
         <v>1.1931</v>
@@ -5102,16 +5087,16 @@
     </row>
     <row r="35" spans="4:21" ht="13.15">
       <c r="L35" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U35" s="11">
         <v>1.1793</v>
@@ -5119,16 +5104,16 @@
     </row>
     <row r="36" spans="4:21" ht="13.15">
       <c r="L36" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="U36" s="11">
         <v>1.1552</v>
@@ -5136,16 +5121,16 @@
     </row>
     <row r="37" spans="4:21" ht="13.15">
       <c r="L37" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U37" s="11">
         <v>1.1334</v>
@@ -5153,16 +5138,16 @@
     </row>
     <row r="38" spans="4:21" ht="13.15">
       <c r="L38" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U38" s="11">
         <v>1.1136999999999999</v>
@@ -5170,16 +5155,16 @@
     </row>
     <row r="39" spans="4:21" ht="13.15">
       <c r="L39" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="U39" s="11">
         <v>1.0934999999999999</v>
@@ -5187,16 +5172,16 @@
     </row>
     <row r="40" spans="4:21" ht="13.15">
       <c r="L40" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U40" s="11">
         <v>1.0831</v>
@@ -5204,16 +5189,16 @@
     </row>
     <row r="41" spans="4:21" ht="13.15">
       <c r="L41" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="U41" s="11">
         <v>1.0719000000000001</v>
@@ -5221,16 +5206,16 @@
     </row>
     <row r="42" spans="4:21" ht="13.15">
       <c r="L42" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U42" s="11">
         <v>1.0519000000000001</v>
@@ -5238,16 +5223,16 @@
     </row>
     <row r="43" spans="4:21" ht="13.15">
       <c r="L43" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="U43" s="11">
         <v>1.0274000000000001</v>
@@ -5255,16 +5240,16 @@
     </row>
     <row r="44" spans="4:21" ht="13.15">
       <c r="L44" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U44" s="11">
         <v>1.0091000000000001</v>
@@ -5272,16 +5257,16 @@
     </row>
     <row r="45" spans="4:21" ht="13.15">
       <c r="L45" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U45" s="11">
         <v>1</v>
@@ -5289,16 +5274,16 @@
     </row>
     <row r="46" spans="4:21" ht="13.15">
       <c r="L46" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U46" s="11">
         <v>0.98960000000000004</v>
@@ -5306,16 +5291,16 @@
     </row>
     <row r="47" spans="4:21" ht="13.15">
       <c r="L47" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="U47" s="11">
         <v>0.97809999999999997</v>
@@ -5323,16 +5308,16 @@
     </row>
     <row r="48" spans="4:21" ht="13.15">
       <c r="L48" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="U48" s="11">
         <v>0.96499999999999997</v>
@@ -5340,16 +5325,16 @@
     </row>
     <row r="49" spans="12:21" ht="13.15">
       <c r="L49" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="U49" s="11">
         <v>0.94910000000000005</v>
@@ -5357,16 +5342,16 @@
     </row>
     <row r="50" spans="12:21" ht="13.15">
       <c r="L50" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U50" s="11">
         <v>0.92969999999999997</v>
@@ -5374,13 +5359,13 @@
     </row>
     <row r="51" spans="12:21" ht="13.15">
       <c r="L51" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U51" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5388,13 +5373,13 @@
     </row>
     <row r="52" spans="12:21" ht="13.15">
       <c r="L52" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5402,13 +5387,13 @@
     </row>
     <row r="53" spans="12:21" ht="13.15">
       <c r="L53" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="U53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5416,13 +5401,13 @@
     </row>
     <row r="54" spans="12:21" ht="13.15">
       <c r="L54" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5430,10 +5415,10 @@
     </row>
     <row r="55" spans="12:21">
       <c r="Q55" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5441,10 +5426,10 @@
     </row>
     <row r="56" spans="12:21">
       <c r="Q56" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5452,10 +5437,10 @@
     </row>
     <row r="57" spans="12:21">
       <c r="Q57" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5463,10 +5448,10 @@
     </row>
     <row r="58" spans="12:21">
       <c r="Q58" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5474,10 +5459,10 @@
     </row>
     <row r="59" spans="12:21">
       <c r="Q59" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5485,10 +5470,10 @@
     </row>
     <row r="60" spans="12:21">
       <c r="Q60" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5496,10 +5481,10 @@
     </row>
     <row r="61" spans="12:21">
       <c r="Q61" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5507,10 +5492,10 @@
     </row>
     <row r="62" spans="12:21">
       <c r="Q62" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5518,10 +5503,10 @@
     </row>
     <row r="63" spans="12:21">
       <c r="Q63" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5529,10 +5514,10 @@
     </row>
     <row r="64" spans="12:21">
       <c r="Q64" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5540,10 +5525,10 @@
     </row>
     <row r="65" spans="17:21">
       <c r="Q65" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5551,10 +5536,10 @@
     </row>
     <row r="66" spans="17:21">
       <c r="Q66" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5562,10 +5547,10 @@
     </row>
     <row r="67" spans="17:21">
       <c r="Q67" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="U67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5573,10 +5558,10 @@
     </row>
     <row r="68" spans="17:21">
       <c r="Q68" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="U68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5584,10 +5569,10 @@
     </row>
     <row r="69" spans="17:21">
       <c r="Q69" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5595,10 +5580,10 @@
     </row>
     <row r="70" spans="17:21">
       <c r="Q70" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="U70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5606,10 +5591,10 @@
     </row>
     <row r="71" spans="17:21">
       <c r="Q71" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5617,10 +5602,10 @@
     </row>
     <row r="72" spans="17:21">
       <c r="Q72" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5628,10 +5613,10 @@
     </row>
     <row r="73" spans="17:21">
       <c r="Q73" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5639,10 +5624,10 @@
     </row>
     <row r="74" spans="17:21">
       <c r="Q74" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5650,10 +5635,10 @@
     </row>
     <row r="75" spans="17:21">
       <c r="Q75" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5661,10 +5646,10 @@
     </row>
     <row r="76" spans="17:21">
       <c r="Q76" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="U76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5672,10 +5657,10 @@
     </row>
     <row r="77" spans="17:21">
       <c r="Q77" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5683,10 +5668,10 @@
     </row>
     <row r="78" spans="17:21">
       <c r="Q78" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5694,10 +5679,10 @@
     </row>
     <row r="79" spans="17:21">
       <c r="Q79" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="U79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5705,10 +5690,10 @@
     </row>
     <row r="80" spans="17:21">
       <c r="Q80" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5716,10 +5701,10 @@
     </row>
     <row r="81" spans="17:21">
       <c r="Q81" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5727,10 +5712,10 @@
     </row>
     <row r="82" spans="17:21">
       <c r="Q82" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="U82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5738,10 +5723,10 @@
     </row>
     <row r="83" spans="17:21">
       <c r="Q83" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5749,10 +5734,10 @@
     </row>
     <row r="84" spans="17:21">
       <c r="Q84" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="U84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5760,10 +5745,10 @@
     </row>
     <row r="85" spans="17:21">
       <c r="Q85" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5771,10 +5756,10 @@
     </row>
     <row r="86" spans="17:21">
       <c r="Q86" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="U86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5782,10 +5767,10 @@
     </row>
     <row r="87" spans="17:21">
       <c r="Q87" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="U87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5793,10 +5778,10 @@
     </row>
     <row r="88" spans="17:21">
       <c r="Q88" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5804,10 +5789,10 @@
     </row>
     <row r="89" spans="17:21">
       <c r="Q89" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5815,10 +5800,10 @@
     </row>
     <row r="90" spans="17:21">
       <c r="Q90" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="U90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5826,10 +5811,10 @@
     </row>
     <row r="91" spans="17:21">
       <c r="Q91" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="U91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5837,10 +5822,10 @@
     </row>
     <row r="92" spans="17:21">
       <c r="Q92" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="U92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5848,10 +5833,10 @@
     </row>
     <row r="93" spans="17:21">
       <c r="Q93" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5888,7 +5873,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>57</v>
@@ -5896,10 +5881,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5907,10 +5892,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5918,10 +5903,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5929,10 +5914,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -5940,10 +5925,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5951,10 +5936,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5962,10 +5947,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5973,10 +5958,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5984,10 +5969,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5995,10 +5980,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6006,10 +5991,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6017,10 +6002,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6028,10 +6013,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6039,10 +6024,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6050,10 +6035,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6061,10 +6046,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6072,73 +6057,73 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8EEF5-7416-48FB-BE43-395339B89CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502AB0A0-488E-472E-8E10-3785C1568260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502AB0A0-488E-472E-8E10-3785C1568260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCC2B6-C7D9-4FD1-88D5-84057F2A1B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCC2B6-C7D9-4FD1-88D5-84057F2A1B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E063712-2D8D-44E9-93EC-EFDB58EE4D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -3008,67 +3008,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>206</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
+    <row r="5" spans="2:8">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3082,9 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3674,31 +3672,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+    <row r="1" spans="2:12" ht="12.75">
+      <c r="B1" s="6"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" ht="12.75">
+      <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3706,163 +3702,163 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" ht="12.75">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:12">
+      <c r="D6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:12">
+      <c r="D7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="2:12">
+      <c r="D8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="2:12">
+      <c r="D9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="2:12">
+      <c r="B12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="2:12">
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>2222</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="2:12">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>8888</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="13"/>
+    <row r="16" spans="2:12" ht="12.75">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3871,9 +3867,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3882,9 +3878,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" ht="12.75">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3893,9 +3889,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25">
-      <c r="A19"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" ht="14.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -3908,9 +3904,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -3923,9 +3919,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.25">
-      <c r="A21"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="2:14" ht="14.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3938,9 +3934,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25">
-      <c r="A22"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -3953,9 +3949,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25">
-      <c r="A23"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="2:14" ht="14.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -3968,9 +3964,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3983,9 +3979,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25">
-      <c r="A25"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" ht="14.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -3998,9 +3994,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25">
-      <c r="A26"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -4013,9 +4009,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.25">
-      <c r="A27"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="2:14" ht="14.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4028,9 +4024,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.25">
-      <c r="A28"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="2:14" ht="14.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -4043,9 +4039,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25">
-      <c r="A29"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="2:14" ht="14.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -4058,9 +4054,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25">
-      <c r="A30"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -4073,9 +4069,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.25">
-      <c r="A31"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:14" ht="14.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4088,9 +4084,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25">
-      <c r="A32"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -4103,9 +4099,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25">
-      <c r="A33"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="2:14" ht="14.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -4118,9 +4114,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25">
-      <c r="A34"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14" ht="14.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -4133,9 +4129,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.25">
-      <c r="A35"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4148,9 +4144,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.25">
-      <c r="A36"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4163,9 +4159,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25">
-      <c r="A37"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4178,9 +4174,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25">
-      <c r="A38"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4193,9 +4189,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25">
-      <c r="A39"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -4208,9 +4204,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.25">
-      <c r="A40"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -4223,6 +4219,7 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
+      <c r="N40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4233,1612 +4230,1549 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="B2:V93"/>
+  <dimension ref="A2:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="11"/>
-    <col min="12" max="12" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="20" t="s">
+    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="13"/>
+      <c r="N2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="G4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.2201</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.1427</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.077</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="6">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.0358000000000001</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.9192</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.8468</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.7799</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.722</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.6836</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="6">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.15">
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.6446000000000001</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2139.4548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.15">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.15">
+      <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1.5770999999999999</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13.15">
+      <c r="B21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1.5488</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.15">
+      <c r="B22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1.5224</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="6">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.15">
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.5058</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.15">
+      <c r="B24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="11">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.15">
+      <c r="B25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.4518</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="11">
         <v>54</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="14.25">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="19" t="s">
+    </row>
+    <row r="26" spans="1:16" ht="13.15">
+      <c r="B26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.4198999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13.15">
+      <c r="B27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.15">
+      <c r="B28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.3727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13.15">
+      <c r="B29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.3369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.15">
+      <c r="B30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1.2967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.15">
+      <c r="B31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.2583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13.15">
+      <c r="B32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2253000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13.15">
+      <c r="B33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.2023999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13.15">
+      <c r="B34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.1931</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.15">
+      <c r="B35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.1793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="13.15">
+      <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="Q4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="13.15">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="G36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.1552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.15">
+      <c r="B37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.1334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13.15">
+      <c r="B38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.15">
+      <c r="B39" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.0934999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13.15">
+      <c r="B40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.0831</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13.15">
+      <c r="B41" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1.0719000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13.15">
+      <c r="B42" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.0519000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.15">
+      <c r="B43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.0274000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13.15">
+      <c r="B44" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1.0091000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13.15">
+      <c r="B45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="11">
         <v>1</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="13.15">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U6" s="11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="13.15">
-      <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="13.15">
-      <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="11" t="s">
+    </row>
+    <row r="46" spans="2:11" ht="13.15">
+      <c r="B46" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="J46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13.15">
+      <c r="B47" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13.15">
+      <c r="B48" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="13.15">
+      <c r="B49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="13.15">
+      <c r="B50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="13.15">
+      <c r="B51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="U8" s="11">
-        <v>2.2201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="13.15">
-      <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="K51" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="13.15">
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K52" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.15">
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.15">
+      <c r="B54" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="G55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="G56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="G57" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="G58" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K58" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="G59" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="G60" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="G61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="G62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K62" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="G63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="G64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K75" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11">
+      <c r="G76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11">
+      <c r="G77" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11">
+      <c r="G78" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11">
+      <c r="G79" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11">
+      <c r="G80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11">
+      <c r="G81" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K81" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K83" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K84" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11">
+      <c r="G85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K85" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
+      <c r="G87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U9" s="11">
-        <v>2.1427</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="D10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="11">
-        <v>2.077</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="D11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2.0358000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="13.15">
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1055.55</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" s="11">
-        <v>1.9870000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="13.15">
-      <c r="D13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="11">
-        <v>1.9192</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="13.15">
-      <c r="B14" s="13"/>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="11">
-        <v>1.8468</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="13.15">
-      <c r="B15" s="13"/>
-      <c r="D15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U15" s="11">
-        <v>1.7799</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="13.15">
-      <c r="B16" s="13"/>
-      <c r="D16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1.05555</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U16" s="11">
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" ht="13.15">
-      <c r="D17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4.1868000000000002E-2</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U17" s="11">
-        <v>1.6836</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" ht="13.15">
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="6">
-        <v>41.868000000000002</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="11">
-        <v>1.6446000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" ht="13.15">
-      <c r="D19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="11">
-        <v>1.6102000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" ht="13.15">
-      <c r="D20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" s="11">
-        <v>1.5770999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:21" ht="13.15">
-      <c r="D21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="11">
-        <v>1.5488</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" ht="13.15">
-      <c r="D22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="11">
-        <v>1.5224</v>
-      </c>
-    </row>
-    <row r="23" spans="4:21" ht="13.15">
-      <c r="D23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U23" s="11">
-        <v>1.5058</v>
-      </c>
-    </row>
-    <row r="24" spans="4:21" ht="13.15">
-      <c r="D24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U24" s="11">
-        <v>1.4844999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="4:21" ht="13.15">
-      <c r="D25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="6">
-        <v>37.68</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" s="11">
-        <v>1.4518</v>
-      </c>
-    </row>
-    <row r="26" spans="4:21" ht="13.15">
-      <c r="D26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2139.4548</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U26" s="11">
-        <v>1.4198999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:21" ht="13.15">
-      <c r="D27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2.78</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U27" s="11">
-        <v>1.3986000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="4:21" ht="13.15">
-      <c r="D28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U28" s="11">
-        <v>1.3727</v>
-      </c>
-    </row>
-    <row r="29" spans="4:21" ht="13.15">
-      <c r="D29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="11">
-        <v>1.3369</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21" ht="13.15">
-      <c r="D30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="6">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U30" s="11">
-        <v>1.2967</v>
-      </c>
-    </row>
-    <row r="31" spans="4:21" ht="13.15">
-      <c r="D31" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="6">
-        <v>120</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" s="11">
-        <v>1.2583</v>
-      </c>
-    </row>
-    <row r="32" spans="4:21" ht="13.15">
-      <c r="D32" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="11">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L32" s="19" t="s">
+      <c r="K88" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11">
+      <c r="G89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U32" s="11">
-        <v>1.2253000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:21" ht="13.15">
-      <c r="D33" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="11">
-        <v>54</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="K89" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="U33" s="11">
-        <v>1.2023999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="4:21" ht="13.15">
-      <c r="L34" s="19" t="s">
+      <c r="K90" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11">
+      <c r="G91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U34" s="11">
-        <v>1.1931</v>
-      </c>
-    </row>
-    <row r="35" spans="4:21" ht="13.15">
-      <c r="L35" s="19" t="s">
+      <c r="K91" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U35" s="11">
-        <v>1.1793</v>
-      </c>
-    </row>
-    <row r="36" spans="4:21" ht="13.15">
-      <c r="L36" s="19" t="s">
+      <c r="K92" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U36" s="11">
-        <v>1.1552</v>
-      </c>
-    </row>
-    <row r="37" spans="4:21" ht="13.15">
-      <c r="L37" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="U37" s="11">
-        <v>1.1334</v>
-      </c>
-    </row>
-    <row r="38" spans="4:21" ht="13.15">
-      <c r="L38" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="U38" s="11">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="4:21" ht="13.15">
-      <c r="L39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U39" s="11">
-        <v>1.0934999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="4:21" ht="13.15">
-      <c r="L40" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U40" s="11">
-        <v>1.0831</v>
-      </c>
-    </row>
-    <row r="41" spans="4:21" ht="13.15">
-      <c r="L41" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U41" s="11">
-        <v>1.0719000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="4:21" ht="13.15">
-      <c r="L42" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U42" s="11">
-        <v>1.0519000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:21" ht="13.15">
-      <c r="L43" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U43" s="11">
-        <v>1.0274000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="4:21" ht="13.15">
-      <c r="L44" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U44" s="11">
-        <v>1.0091000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="4:21" ht="13.15">
-      <c r="L45" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="U45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:21" ht="13.15">
-      <c r="L46" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U46" s="11">
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="4:21" ht="13.15">
-      <c r="L47" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U47" s="11">
-        <v>0.97809999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="4:21" ht="13.15">
-      <c r="L48" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="U48" s="11">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="12:21" ht="13.15">
-      <c r="L49" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U49" s="11">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="12:21" ht="13.15">
-      <c r="L50" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U50" s="11">
-        <v>0.92969999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="12:21" ht="13.15">
-      <c r="L51" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="U51" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:21" ht="13.15">
-      <c r="L52" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U52" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="12:21" ht="13.15">
-      <c r="L53" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U53" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="12:21" ht="13.15">
-      <c r="L54" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U54" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="12:21">
-      <c r="Q55" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U55" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="12:21">
-      <c r="Q56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U56" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="12:21">
-      <c r="Q57" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U57" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="12:21">
-      <c r="Q58" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U58" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="12:21">
-      <c r="Q59" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U59" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="12:21">
-      <c r="Q60" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U60" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="12:21">
-      <c r="Q61" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U61" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="12:21">
-      <c r="Q62" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U62" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="12:21">
-      <c r="Q63" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U63" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="12:21">
-      <c r="Q64" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U64" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="17:21">
-      <c r="Q65" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U65" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="17:21">
-      <c r="Q66" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U66" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="17:21">
-      <c r="Q67" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T67" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U67" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="17:21">
-      <c r="Q68" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T68" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U68" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="17:21">
-      <c r="Q69" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U69" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="17:21">
-      <c r="Q70" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U70" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="17:21">
-      <c r="Q71" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T71" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U71" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="17:21">
-      <c r="Q72" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T72" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U72" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="17:21">
-      <c r="Q73" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U73" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="17:21">
-      <c r="Q74" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U74" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="17:21">
-      <c r="Q75" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U75" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="17:21">
-      <c r="Q76" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="U76" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="17:21">
-      <c r="Q77" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U77" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="17:21">
-      <c r="Q78" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U78" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="17:21">
-      <c r="Q79" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U79" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="17:21">
-      <c r="Q80" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="U80" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="17:21">
-      <c r="Q81" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="U81" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="17:21">
-      <c r="Q82" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T82" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U82" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="17:21">
-      <c r="Q83" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U83" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="17:21">
-      <c r="Q84" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U84" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="17:21">
-      <c r="Q85" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T85" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U85" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="17:21">
-      <c r="Q86" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T86" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U86" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="17:21">
-      <c r="Q87" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T87" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U87" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="17:21">
-      <c r="Q88" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T88" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="U88" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="17:21">
-      <c r="Q89" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T89" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U89" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="17:21">
-      <c r="Q90" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T90" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U90" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="17:21">
-      <c r="Q91" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T91" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="U91" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="17:21">
-      <c r="Q92" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T92" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U92" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="17:21">
-      <c r="Q93" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="T93" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U93" s="11">
+      <c r="K93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5850,10 +5784,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
-  <dimension ref="A3:D33"/>
+  <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -6011,7 +5945,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
         <v>158</v>
       </c>
@@ -6022,7 +5956,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +5967,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
         <v>158</v>
       </c>
@@ -6044,7 +5978,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
         <v>173</v>
       </c>
@@ -6055,17 +5989,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
+    <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
+    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>177</v>
       </c>
@@ -6073,7 +6007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
         <v>179</v>
       </c>
@@ -6081,7 +6015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
         <v>181</v>
       </c>
@@ -6089,7 +6023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
         <v>182</v>
       </c>
@@ -6097,7 +6031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
         <v>183</v>
       </c>
@@ -6105,7 +6039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
         <v>184</v>
       </c>
@@ -6113,7 +6047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
         <v>185</v>
       </c>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E063712-2D8D-44E9-93EC-EFDB58EE4D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC8CDE-5486-44C2-A3A8-328DAE525724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC8CDE-5486-44C2-A3A8-328DAE525724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E5205-0C36-448B-90B6-86D0DCBFA60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -658,28 +658,34 @@
     <t>co2net</t>
   </si>
   <si>
+    <t>flo_mark</t>
+  </si>
+  <si>
+    <t>hydrogen_allsect</t>
+  </si>
+  <si>
+    <t>Hydrogen demand - all sectors</t>
+  </si>
+  <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>ELC_Sol-JPN</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-JPN</t>
+  </si>
+  <si>
+    <t>solar generation</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
-    <t>Solar electricity produced in - Japan</t>
-  </si>
-  <si>
-    <t>ELC_Win-JPN</t>
-  </si>
-  <si>
-    <t>Wind electricity produced in - Japan</t>
+    <t>elc_won-JPN</t>
+  </si>
+  <si>
+    <t>wind generation</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1070,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="47">
@@ -1588,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2136,8 +2156,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,8 +2183,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
     <cellStyle name="20% - Accent1 3" xfId="5" xr:uid="{58CA3325-8B37-45C5-A177-73E6AEE43B64}"/>
     <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{3C5AA3C1-DAA0-472F-BECC-C64D10D55099}"/>
@@ -2375,6 +2399,7 @@
     <cellStyle name="Monétaire [0]_03tabmat" xfId="208" xr:uid="{F0DE3656-7A58-4CA3-A5EE-8576552EC653}"/>
     <cellStyle name="Monétaire_03tabmat" xfId="209" xr:uid="{E08D72EA-6991-424D-A48D-6801B506315C}"/>
     <cellStyle name="Neutral 2" xfId="211" xr:uid="{0BD2AEA9-BAC5-48AA-B1A7-8F95AAE6853E}"/>
+    <cellStyle name="Neutral 2 2" xfId="435" xr:uid="{773FC3D2-CB25-40C1-9022-B7616488FC25}"/>
     <cellStyle name="Neutral 3" xfId="210" xr:uid="{2435363D-5388-4D62-AE78-289118217843}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="212" xr:uid="{347F5622-C417-4F2E-B072-ECA7EBFFEE51}"/>
@@ -2474,6 +2499,7 @@
     <cellStyle name="Normal 3 5" xfId="306" xr:uid="{6443DAD9-14AD-440B-897A-2E9A24F0DF1D}"/>
     <cellStyle name="Normal 3 6" xfId="307" xr:uid="{E81CCC51-42D9-4E87-8496-29697C117EDE}"/>
     <cellStyle name="Normal 3 7" xfId="308" xr:uid="{5928F6C9-137F-431B-BF0D-7549BEA7EBFE}"/>
+    <cellStyle name="Normal 3 8" xfId="436" xr:uid="{552B16F0-55E2-4A8F-AA64-ACE13CE218AC}"/>
     <cellStyle name="Normal 30" xfId="309" xr:uid="{55B4AFDB-2E32-4F94-ABBB-FD32410C9D32}"/>
     <cellStyle name="Normal 31" xfId="310" xr:uid="{221EABEA-5450-4B12-B481-461C2BAE31B9}"/>
     <cellStyle name="Normal 32" xfId="311" xr:uid="{99908D0B-751D-4CA3-A3C2-C2D00549AE1A}"/>
@@ -3010,9 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3055,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3080,9 +3104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3096,7 +3122,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3141,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3141,22 +3167,25 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3170,19 +3199,22 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -3193,19 +3225,22 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3229,7 +3264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3237,7 +3272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3245,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3253,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +3296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3269,7 +3304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3289,15 +3324,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -3308,10 +3343,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3322,10 +3357,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3333,41 +3368,47 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>198</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
-        <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
@@ -3375,15 +3416,23 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C332">
-    <sortCondition ref="C17:C332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
+    <sortCondition ref="C18:C333"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3672,21 +3721,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="B1:N40"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -3802,49 +3857,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="14" t="s">
+    <row r="10" spans="2:12">
+      <c r="D10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="D14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2222</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -3852,22 +3907,22 @@
         <v>70</v>
       </c>
       <c r="F15" s="11">
+        <v>2222</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="11">
         <v>8888</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="12.75">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
@@ -3891,20 +3946,16 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+    <row r="19" spans="2:14" ht="12.75">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
@@ -4221,6 +4272,21 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
+    <row r="41" spans="2:14" ht="14.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4230,18 +4296,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P93"/>
+  <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.3984375" style="11"/>
+    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="11"/>
+    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>73</v>
@@ -4249,13 +4328,13 @@
       <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>75</v>
@@ -4264,62 +4343,56 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>188</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.15">
+    <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="11">
+      <c r="I4" s="11">
         <v>0.05</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.15">
+    <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>77</v>
@@ -4327,1452 +4400,1536 @@
       <c r="E5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.15">
+    <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="11">
+      <c r="I6" s="11">
         <v>2025</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.15">
+    <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="11">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.15">
+    <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="11">
+      <c r="I8" s="11">
         <v>2.2201</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.15">
+    <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="11">
+      <c r="I9" s="11">
         <v>2.1427</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.15">
+    <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="11">
+      <c r="I10" s="11">
         <v>2.077</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.15">
+    <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="11">
+      <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.15">
+    <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="11">
+      <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.15">
+    <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="11">
+      <c r="I13" s="11">
         <v>1.9192</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.15">
+    <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="11">
+      <c r="I14" s="11">
         <v>1.8468</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.15">
+    <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="11">
+      <c r="I15" s="11">
         <v>1.7799</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.15">
+    <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="11">
+      <c r="I16" s="11">
         <v>1.722</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="6">
+      <c r="N16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.15">
+    <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="11">
+      <c r="I17" s="11">
         <v>1.6836</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="6">
+      <c r="N17" s="6">
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.15">
+    <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
         <v>102</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="11">
+      <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="6">
+      <c r="N18" s="6">
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.15">
+    <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
         <v>104</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="11">
+      <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="6">
+      <c r="N19" s="6">
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.15">
+    <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="F20" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="11">
+      <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="6">
+      <c r="N20" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.15">
+    <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="11">
+      <c r="I21" s="11">
         <v>1.5488</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="6">
+      <c r="N21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.15">
+    <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
         <v>111</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="11">
+      <c r="I22" s="11">
         <v>1.5224</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="6">
+      <c r="N22" s="6">
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.15">
+    <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="11">
+      <c r="I23" s="11">
         <v>1.5058</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="6">
+      <c r="N23" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.15">
+    <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="F24" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="11">
+      <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="11">
+      <c r="N24" s="11">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.15">
+    <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="11">
+      <c r="I25" s="11">
         <v>1.4518</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="11">
+      <c r="N25" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.15">
+    <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="F26" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="11">
+      <c r="I26" s="11">
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.15">
+    <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="11">
+      <c r="I27" s="11">
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.15">
+    <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
         <v>126</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11">
+      <c r="I28" s="11">
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.15">
+    <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
         <v>128</v>
       </c>
+      <c r="F29" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="11">
+      <c r="I29" s="11">
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.15">
+    <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
         <v>129</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="11">
+      <c r="I30" s="11">
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.15">
+    <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="11">
+      <c r="I31" s="11">
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.15">
+    <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
         <v>133</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="11">
+      <c r="I32" s="11">
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.15">
+    <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
         <v>135</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="11">
+      <c r="I33" s="11">
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="13.15">
+    <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
         <v>137</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="11">
+      <c r="I34" s="11">
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="13.15">
+    <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="11">
+      <c r="I35" s="11">
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="13.15">
+    <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="11">
+      <c r="I36" s="11">
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="13.15">
+    <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="11">
+      <c r="I37" s="11">
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="13.15">
+    <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
         <v>141</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="11">
+      <c r="I38" s="11">
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="13.15">
+    <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
         <v>142</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="11">
+      <c r="I39" s="11">
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="13.15">
+    <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
         <v>143</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="11">
+      <c r="I40" s="11">
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="13.15">
+    <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="F41" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="11">
+      <c r="I41" s="11">
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.15">
+    <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="11">
+      <c r="I42" s="11">
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.15">
+    <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
         <v>146</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="11">
+      <c r="I43" s="11">
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.15">
+    <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
         <v>147</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="11">
+      <c r="I44" s="11">
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="13.15">
+    <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="11">
+      <c r="I45" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="13.15">
+    <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K46" s="11">
+      <c r="I46" s="11">
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="13.15">
+    <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="F47" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="11">
+      <c r="I47" s="11">
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="13.15">
+    <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
         <v>151</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="11">
+      <c r="I48" s="11">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="13.15">
+    <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
         <v>152</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="11">
+      <c r="I49" s="11">
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.15">
+    <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
         <v>153</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="11">
+      <c r="I50" s="11">
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.15">
+    <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="13.15">
+      <c r="F51" s="11" t="str">
+        <f>F46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f t="shared" ref="G51:I51" si="0">G46</f>
+        <v>USD20</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="H52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.15">
+    <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="H53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.15">
+    <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="H54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="F55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K54" s="11">
+      <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="G55" s="11" t="s">
+    <row r="56" spans="2:9">
+      <c r="F56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K55" s="11">
+      <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="G56" s="11" t="s">
+    <row r="57" spans="2:9">
+      <c r="F57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K56" s="11">
+      <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="G57" s="11" t="s">
+    <row r="58" spans="2:9">
+      <c r="F58" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K57" s="11">
+      <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="11" t="s">
+    <row r="59" spans="2:9">
+      <c r="F59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K58" s="11">
+      <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="G59" s="11" t="s">
+    <row r="60" spans="2:9">
+      <c r="F60" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K59" s="11">
+      <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="G60" s="11" t="s">
+    <row r="61" spans="2:9">
+      <c r="F61" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K60" s="11">
+      <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="G61" s="11" t="s">
+    <row r="62" spans="2:9">
+      <c r="F62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K61" s="11">
+      <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="11" t="s">
+    <row r="63" spans="2:9">
+      <c r="F63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="11">
+      <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="11" t="s">
+    <row r="64" spans="2:9">
+      <c r="F64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="11">
+      <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="11" t="s">
+    <row r="65" spans="6:9">
+      <c r="F65" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="11">
+      <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="11" t="s">
+    <row r="66" spans="6:9">
+      <c r="F66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K65" s="11">
+      <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="11" t="s">
+    <row r="67" spans="6:9">
+      <c r="F67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="11">
+      <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="11" t="s">
+    <row r="68" spans="6:9">
+      <c r="F68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K67" s="11">
+      <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="11" t="s">
+    <row r="69" spans="6:9">
+      <c r="F69" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K68" s="11">
+      <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="11" t="s">
+    <row r="70" spans="6:9">
+      <c r="F70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="11">
+      <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="11" t="s">
+    <row r="71" spans="6:9">
+      <c r="F71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K70" s="11">
+      <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="11" t="s">
+    <row r="72" spans="6:9">
+      <c r="F72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K71" s="11">
+      <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="11" t="s">
+    <row r="73" spans="6:9">
+      <c r="F73" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K72" s="11">
+      <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="11" t="s">
+    <row r="74" spans="6:9">
+      <c r="F74" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K73" s="11">
+      <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="11" t="s">
+    <row r="75" spans="6:9">
+      <c r="F75" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K74" s="11">
+      <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="11" t="s">
+    <row r="76" spans="6:9">
+      <c r="F76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K75" s="11">
+      <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="11" t="s">
+    <row r="77" spans="6:9">
+      <c r="F77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K76" s="11">
+      <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="11" t="s">
+    <row r="78" spans="6:9">
+      <c r="F78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K77" s="11">
+      <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="11" t="s">
+    <row r="79" spans="6:9">
+      <c r="F79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K78" s="11">
+      <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="11" t="s">
+    <row r="80" spans="6:9">
+      <c r="F80" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="11">
+      <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="11" t="s">
+    <row r="81" spans="6:9">
+      <c r="F81" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K80" s="11">
+      <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="11" t="s">
+    <row r="82" spans="6:9">
+      <c r="F82" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K81" s="11">
+      <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="11" t="s">
+    <row r="83" spans="6:9">
+      <c r="F83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K82" s="11">
+      <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="11" t="s">
+    <row r="84" spans="6:9">
+      <c r="F84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K83" s="11">
+      <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="11" t="s">
+    <row r="85" spans="6:9">
+      <c r="F85" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K84" s="11">
+      <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="11" t="s">
+    <row r="86" spans="6:9">
+      <c r="F86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K85" s="11">
+      <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="11" t="s">
+    <row r="87" spans="6:9">
+      <c r="F87" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K86" s="11">
+      <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="11" t="s">
+    <row r="88" spans="6:9">
+      <c r="F88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K87" s="11">
+      <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="11" t="s">
+    <row r="89" spans="6:9">
+      <c r="F89" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K88" s="11">
+      <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="11" t="s">
+    <row r="90" spans="6:9">
+      <c r="F90" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K89" s="11">
+      <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="11" t="s">
+    <row r="91" spans="6:9">
+      <c r="F91" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K90" s="11">
+      <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="11" t="s">
+    <row r="92" spans="6:9">
+      <c r="F92" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K91" s="11">
+      <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="11" t="s">
+    <row r="93" spans="6:9">
+      <c r="F93" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K92" s="11">
+      <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="11" t="s">
+    <row r="94" spans="6:9">
+      <c r="F94" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="11">
+      <c r="I94" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
+      <c r="F95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="11" t="str">
+        <f>H51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="I95" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+      <c r="E99" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+      <c r="E100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" ht="14.25">
+      <c r="E101"/>
+      <c r="F101" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="22">
+        <f>1.10926234054354*I40</f>
+        <v>1.201442041042708</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" ht="14.25">
+      <c r="E102"/>
+      <c r="F102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="22">
+        <f>I84</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5786,9 +5943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E5205-0C36-448B-90B6-86D0DCBFA60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E955D-F2A9-4842-B374-9DC7D2E48080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E955D-F2A9-4842-B374-9DC7D2E48080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E1703-9DA8-4408-8D08-E4B83CF7EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E1703-9DA8-4408-8D08-E4B83CF7EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94485363-D5A0-48C1-A2D2-AF16389C3D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -121,9 +121,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
@@ -667,6 +664,21 @@
     <t>Hydrogen demand - all sectors</t>
   </si>
   <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>NRG, GAS</t>
+  </si>
+  <si>
+    <t>wind onshore</t>
+  </si>
+  <si>
+    <t>wind offshore</t>
+  </si>
+  <si>
     <t>JPN</t>
   </si>
   <si>
@@ -676,16 +688,22 @@
     <t>elc_spv-JPN</t>
   </si>
   <si>
-    <t>solar generation</t>
+    <t>solar electricity generation</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
+    <t>elc_wof-JPN</t>
+  </si>
+  <si>
+    <t>offshore wind electricity generation</t>
+  </si>
+  <si>
     <t>elc_won-JPN</t>
   </si>
   <si>
-    <t>wind generation</t>
+    <t>onshore wind electricity generation</t>
   </si>
 </sst>
 </file>
@@ -3079,21 +3097,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3104,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R23"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3167,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3199,22 +3217,25 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:18">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -3225,30 +3246,54 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3257,6 +3302,9 @@
       </c>
     </row>
     <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3265,6 +3313,9 @@
       </c>
     </row>
     <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3273,6 +3324,9 @@
       </c>
     </row>
     <row r="11" spans="2:18">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3281,14 +3335,20 @@
       </c>
     </row>
     <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3297,56 +3357,65 @@
       </c>
     </row>
     <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
+        <v>211</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:18">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3354,13 +3423,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3368,13 +3437,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3382,57 +3451,77 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>198</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>199</v>
       </c>
-      <c r="E21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" t="s">
         <v>204</v>
       </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" t="s">
-        <v>200</v>
+      <c r="E24" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
-    <sortCondition ref="C18:C333"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C334">
+    <sortCondition ref="C19:C334"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3457,7 +3546,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3467,28 +3556,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3508,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3516,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3536,7 +3625,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3556,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3576,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3596,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3616,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3632,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3644,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3652,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3660,7 +3749,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3668,37 +3757,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3772,7 +3861,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3780,42 +3869,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3826,7 +3915,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3837,7 +3926,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3848,7 +3937,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3859,7 +3948,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3870,7 +3959,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3878,50 +3967,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4323,13 +4412,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4337,56 +4426,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4395,25 +4484,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4422,19 +4511,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4443,19 +4532,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4464,25 +4553,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4491,25 +4580,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4518,25 +4607,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4545,25 +4634,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4572,25 +4661,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4599,25 +4688,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4626,25 +4715,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4653,25 +4742,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4680,25 +4769,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4707,25 +4796,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4733,25 +4822,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4759,25 +4848,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4785,25 +4874,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4811,25 +4900,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4837,25 +4926,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4863,25 +4952,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4889,25 +4978,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -4915,25 +5004,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -4941,16 +5030,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -4958,16 +5047,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -4975,16 +5064,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -4992,16 +5081,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5009,16 +5098,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5026,16 +5115,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5043,16 +5132,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5060,16 +5149,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5077,16 +5166,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5094,16 +5183,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5111,16 +5200,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5128,16 +5217,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5145,16 +5234,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5162,16 +5251,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5179,16 +5268,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5196,16 +5285,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5213,16 +5302,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5230,16 +5319,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5247,16 +5336,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5264,16 +5353,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5281,16 +5370,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5298,16 +5387,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5315,16 +5404,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5332,16 +5421,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5349,16 +5438,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5366,7 +5455,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5377,7 +5466,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5386,13 +5475,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5400,13 +5489,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5414,13 +5503,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5428,10 +5517,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5439,10 +5528,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5450,10 +5539,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5461,10 +5550,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5472,10 +5561,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5483,10 +5572,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5494,10 +5583,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5505,10 +5594,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5516,10 +5605,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5527,10 +5616,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5538,10 +5627,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5549,10 +5638,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5560,10 +5649,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5571,10 +5660,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5582,10 +5671,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5593,10 +5682,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5604,10 +5693,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5615,10 +5704,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5626,10 +5715,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5637,10 +5726,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5648,10 +5737,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5659,10 +5748,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5670,10 +5759,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5681,10 +5770,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5692,10 +5781,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5703,10 +5792,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5714,10 +5803,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5725,10 +5814,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5736,10 +5825,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5747,10 +5836,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5758,10 +5847,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5769,10 +5858,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5780,10 +5869,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5791,10 +5880,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5802,10 +5891,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5813,10 +5902,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5824,10 +5913,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5835,10 +5924,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5846,10 +5935,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5857,10 +5946,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5868,7 +5957,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5880,39 +5969,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -5922,11 +6011,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -5954,26 +6043,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5981,10 +6070,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5992,10 +6081,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6003,10 +6092,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6014,10 +6103,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6025,10 +6114,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6036,10 +6125,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6047,10 +6136,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6058,10 +6147,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6069,10 +6158,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6080,10 +6169,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6091,10 +6180,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6102,10 +6191,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6113,10 +6202,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6124,10 +6213,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6135,10 +6224,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6146,73 +6235,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_JPN/SysSettings.xlsx
+++ b/VerveStacks_JPN/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94485363-D5A0-48C1-A2D2-AF16389C3D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DF10C-5C51-4C0F-BBA2-F472BCBE4C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="221">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -100,12 +100,6 @@
     <t>bioenergy</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -670,13 +661,19 @@
     <t>windoff</t>
   </si>
   <si>
-    <t>NRG, GAS</t>
-  </si>
-  <si>
     <t>wind onshore</t>
   </si>
   <si>
     <t>wind offshore</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>OIL</t>
   </si>
   <si>
     <t>JPN</t>
@@ -3097,21 +3094,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3122,7 @@
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3185,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3217,19 +3214,19 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" t="s">
         <v>215</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
         <v>216</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3237,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3246,27 +3243,27 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" t="s">
         <v>218</v>
       </c>
-      <c r="O6" t="s">
-        <v>219</v>
-      </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -3275,19 +3272,19 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" t="s">
         <v>220</v>
       </c>
-      <c r="O7" t="s">
-        <v>221</v>
-      </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3295,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -3306,7 +3303,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -3317,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -3328,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -3339,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -3350,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -3361,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -3375,10 +3372,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -3389,33 +3386,33 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3423,13 +3420,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3437,13 +3434,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3451,13 +3448,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -3468,55 +3465,55 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
         <v>196</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
         <v>196</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
         <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3543,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3556,28 +3553,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3597,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3605,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3625,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3645,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3665,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3685,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3705,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3721,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3733,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3741,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3749,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3757,37 +3754,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3861,7 +3858,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3869,42 +3866,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3926,7 +3923,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3967,50 +3964,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4412,13 +4409,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4426,56 +4423,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4484,25 +4481,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4511,19 +4508,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4532,19 +4529,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4553,25 +4550,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4580,25 +4577,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4607,25 +4604,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4634,25 +4631,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4661,25 +4658,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4688,25 +4685,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4715,25 +4712,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4742,25 +4739,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4769,25 +4766,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4796,25 +4793,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4822,25 +4819,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4848,25 +4845,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4874,25 +4871,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4900,25 +4897,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4926,25 +4923,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4952,25 +4949,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4978,25 +4975,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -5004,25 +5001,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -5030,16 +5027,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -5047,16 +5044,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -5064,16 +5061,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -5081,16 +5078,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="H29" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5098,16 +5095,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5115,16 +5112,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5132,16 +5129,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5149,16 +5146,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5166,16 +5163,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5183,16 +5180,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5200,16 +5197,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5217,16 +5214,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5234,16 +5231,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5251,16 +5248,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5268,16 +5265,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5285,16 +5282,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5302,16 +5299,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5319,16 +5316,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5336,16 +5333,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5353,16 +5350,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5370,16 +5367,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5387,16 +5384,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5404,16 +5401,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5421,16 +5418,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5438,16 +5435,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5466,7 +5463,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5475,13 +5472,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5489,13 +5486,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5503,13 +5500,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5517,10 +5514,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5528,10 +5525,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5539,10 +5536,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5550,10 +5547,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5561,10 +5558,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5572,10 +5569,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5583,10 +5580,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5605,10 +5602,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5616,10 +5613,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5627,10 +5624,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5638,10 +5635,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5649,10 +5646,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5660,10 +5657,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5671,10 +5668,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5682,10 +5679,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5715,10 +5712,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5726,10 +5723,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5759,10 +5756,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5770,10 +5767,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5792,10 +5789,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5803,10 +5800,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5825,10 +5822,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5836,10 +5833,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5847,10 +5844,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5858,10 +5855,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5869,10 +5866,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5880,10 +5877,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5891,10 +5888,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5902,10 +5899,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5913,10 +5910,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5924,10 +5921,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5935,10 +5932,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5946,10 +5943,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5957,7 +5954,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5969,39 +5966,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -6011,11 +6008,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -6043,26 +6040,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -6070,10 +6067,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -6081,10 +6078,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6092,10 +6089,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6114,10 +6111,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6125,10 +6122,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6136,10 +6133,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6147,10 +6144,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6180,10 +6177,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6191,10 +6188,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6202,10 +6199,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6213,10 +6210,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6224,10 +6221,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6235,73 +6232,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
